--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nxph3-Nrxn1.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Nxph3</t>
+  </si>
+  <si>
+    <t>Nrxn1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Nxph3</t>
-  </si>
-  <si>
-    <t>Nrxn1</t>
   </si>
 </sst>
 </file>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1425003333333333</v>
+        <v>0.2860933333333334</v>
       </c>
       <c r="H2">
-        <v>0.427501</v>
+        <v>0.85828</v>
       </c>
       <c r="I2">
-        <v>0.2179906358580755</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="J2">
-        <v>0.2179906358580754</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07823633333333334</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N2">
-        <v>0.234709</v>
+        <v>0.008576</v>
       </c>
       <c r="O2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069502</v>
       </c>
       <c r="P2">
-        <v>0.07325462794193288</v>
+        <v>0.002669495535069501</v>
       </c>
       <c r="Q2">
-        <v>0.01114870357877778</v>
+        <v>0.0008178454755555558</v>
       </c>
       <c r="R2">
-        <v>0.100338332209</v>
+        <v>0.00736060928</v>
       </c>
       <c r="S2">
-        <v>0.01596882292460869</v>
+        <v>0.001493987421623446</v>
       </c>
       <c r="T2">
-        <v>0.01596882292460869</v>
+        <v>0.001493987421623446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,57 +596,57 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1425003333333333</v>
+        <v>0.2860933333333334</v>
       </c>
       <c r="H3">
-        <v>0.427501</v>
+        <v>0.85828</v>
       </c>
       <c r="I3">
-        <v>0.2179906358580755</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="J3">
-        <v>0.2179906358580754</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.9897689999999999</v>
+        <v>0.07823633333333334</v>
       </c>
       <c r="N3">
-        <v>2.969307</v>
+        <v>0.234709</v>
       </c>
       <c r="O3">
-        <v>0.9267453720580671</v>
+        <v>0.07305907503971872</v>
       </c>
       <c r="P3">
-        <v>0.9267453720580671</v>
+        <v>0.0730590750397187</v>
       </c>
       <c r="Q3">
-        <v>0.141042412423</v>
+        <v>0.02238289339111112</v>
       </c>
       <c r="R3">
-        <v>1.269381711807</v>
+        <v>0.20144604052</v>
       </c>
       <c r="S3">
-        <v>0.2020218129334668</v>
+        <v>0.04088762753519327</v>
       </c>
       <c r="T3">
-        <v>0.2020218129334667</v>
+        <v>0.04088762753519326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2860933333333333</v>
+        <v>0.2860933333333334</v>
       </c>
       <c r="H4">
-        <v>0.8582799999999999</v>
+        <v>0.85828</v>
       </c>
       <c r="I4">
-        <v>0.4376527843075665</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="J4">
-        <v>0.4376527843075664</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07823633333333334</v>
+        <v>0.989769</v>
       </c>
       <c r="N4">
-        <v>0.234709</v>
+        <v>2.969307</v>
       </c>
       <c r="O4">
-        <v>0.07325462794193288</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="P4">
-        <v>0.07325462794193288</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="Q4">
-        <v>0.02238289339111111</v>
+        <v>0.28316631244</v>
       </c>
       <c r="R4">
-        <v>0.20144604052</v>
+        <v>2.54849681196</v>
       </c>
       <c r="S4">
-        <v>0.03206009188220178</v>
+        <v>0.5172699753892782</v>
       </c>
       <c r="T4">
-        <v>0.03206009188220178</v>
+        <v>0.5172699753892782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,60 +720,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2860933333333333</v>
+        <v>0.2251056666666666</v>
       </c>
       <c r="H5">
-        <v>0.8582799999999999</v>
+        <v>0.6753169999999999</v>
       </c>
       <c r="I5">
-        <v>0.4376527843075665</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="J5">
-        <v>0.4376527843075664</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9897689999999999</v>
+        <v>0.002858666666666667</v>
       </c>
       <c r="N5">
-        <v>2.969307</v>
+        <v>0.008576</v>
       </c>
       <c r="O5">
-        <v>0.9267453720580671</v>
+        <v>0.002669495535069502</v>
       </c>
       <c r="P5">
-        <v>0.9267453720580671</v>
+        <v>0.002669495535069501</v>
       </c>
       <c r="Q5">
-        <v>0.28316631244</v>
+        <v>0.0006435020657777778</v>
       </c>
       <c r="R5">
-        <v>2.548496811959999</v>
+        <v>0.005791518592</v>
       </c>
       <c r="S5">
-        <v>0.4055926924253647</v>
+        <v>0.001175508113446056</v>
       </c>
       <c r="T5">
-        <v>0.4055926924253646</v>
+        <v>0.001175508113446056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2251056666666667</v>
+        <v>0.2251056666666666</v>
       </c>
       <c r="H6">
-        <v>0.6753170000000001</v>
+        <v>0.6753169999999999</v>
       </c>
       <c r="I6">
-        <v>0.3443565798343581</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="J6">
-        <v>0.3443565798343581</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.234709</v>
       </c>
       <c r="O6">
-        <v>0.07325462794193288</v>
+        <v>0.07305907503971872</v>
       </c>
       <c r="P6">
-        <v>0.07325462794193288</v>
+        <v>0.0730590750397187</v>
       </c>
       <c r="Q6">
         <v>0.01761144197255556</v>
@@ -818,24 +818,24 @@
         <v>0.158502977753</v>
       </c>
       <c r="S6">
-        <v>0.02522571313512241</v>
+        <v>0.03217144750452545</v>
       </c>
       <c r="T6">
-        <v>0.02522571313512241</v>
+        <v>0.03217144750452545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2251056666666667</v>
+        <v>0.2251056666666666</v>
       </c>
       <c r="H7">
-        <v>0.6753170000000001</v>
+        <v>0.6753169999999999</v>
       </c>
       <c r="I7">
-        <v>0.3443565798343581</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="J7">
-        <v>0.3443565798343581</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897689999999999</v>
+        <v>0.989769</v>
       </c>
       <c r="N7">
         <v>2.969307</v>
       </c>
       <c r="O7">
-        <v>0.9267453720580671</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="P7">
-        <v>0.9267453720580671</v>
+        <v>0.9242714294252118</v>
       </c>
       <c r="Q7">
         <v>0.222802610591</v>
@@ -880,10 +880,10 @@
         <v>2.005223495319</v>
       </c>
       <c r="S7">
-        <v>0.3191308666992357</v>
+        <v>0.4070014540359336</v>
       </c>
       <c r="T7">
-        <v>0.3191308666992356</v>
+        <v>0.4070014540359336</v>
       </c>
     </row>
   </sheetData>
